--- a/平成31年度/シースリーカップ/4.弁当・パンフ・懇親会　申込/シースリーカップ「弁当・パンフ・懇親会」申込書(レッドサン東).xlsx
+++ b/平成31年度/シースリーカップ/4.弁当・パンフ・懇親会　申込/シースリーカップ「弁当・パンフ・懇親会」申込書(レッドサン東).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\H31　レッドサン東\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B1E720C-4F8D-4D92-A36F-039E7186A7E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFC559B-4AF7-47F4-8457-38595B340C35}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -782,6 +782,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -794,7 +810,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -806,32 +826,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1185,7 +1185,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1248,13 +1248,13 @@
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -1264,13 +1264,13 @@
       <c r="B6" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -1280,13 +1280,13 @@
       <c r="B7" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -1296,13 +1296,13 @@
       <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="48"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
       <c r="H8" s="9"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -1312,17 +1312,17 @@
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="48"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="48"/>
+      <c r="G9" s="44"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -1332,13 +1332,13 @@
       <c r="B10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -1576,11 +1576,11 @@
     <row r="27" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="C27" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D27" s="20">
         <f>C27*200</f>
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="18"/>
@@ -1703,18 +1703,18 @@
       <c r="B36" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="53"/>
+      <c r="D36" s="48"/>
       <c r="E36" s="4"/>
       <c r="F36" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="52" t="s">
+      <c r="G36" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="H36" s="52"/>
+      <c r="H36" s="49"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
     </row>
@@ -1723,14 +1723,14 @@
       <c r="B37" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
       <c r="E37" s="4"/>
       <c r="F37" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
     </row>
@@ -1739,14 +1739,14 @@
       <c r="B38" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
       <c r="E38" s="4"/>
       <c r="F38" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
     </row>
@@ -1789,11 +1789,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="G37:H37"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="G36:H36"/>
@@ -1802,6 +1797,11 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="G37:H37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C36:D38 G36:H38 C18:C19 C5:C10 D5:G7 D9:G10">
